--- a/data/input/absenteeism_data_29.xlsx
+++ b/data/input/absenteeism_data_29.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71388</v>
+        <v>37418</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Felipe Moura</t>
+          <t>Sra. Clarice Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>12000.64</v>
+        <v>7567.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16868</v>
+        <v>72514</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kamilly da Luz</t>
+          <t>André Costela</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,123 +519,123 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>8736.48</v>
+        <v>6431.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>25203</v>
+        <v>72272</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dra. Maria Eduarda Viana</t>
+          <t>Miguel Vieira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>2768.84</v>
+        <v>8528.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60556</v>
+        <v>98339</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Castro</t>
+          <t>Kevin Melo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>9959.360000000001</v>
+        <v>12333.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23806</v>
+        <v>64596</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Srta. Maria Fernanda Farias</t>
+          <t>Clara da Cruz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>10441.34</v>
+        <v>6296.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>75437</v>
+        <v>15246</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Leonardo Costela</t>
+          <t>Sophia Gonçalves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -645,123 +645,123 @@
         <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>6186.7</v>
+        <v>2842.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21255</v>
+        <v>75912</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Marcos Vinicius Gomes</t>
+          <t>Rebeca Almeida</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45105</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>6544.91</v>
+        <v>10904.85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1623</v>
+        <v>39778</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Raquel Peixoto</t>
+          <t>Marcela Ramos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>9994.9</v>
+        <v>11818.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63329</v>
+        <v>43459</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Levi Porto</t>
+          <t>Vinicius da Luz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>5970.8</v>
+        <v>10937.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43593</v>
+        <v>30968</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Theo Castro</t>
+          <t>Maria Cecília Silveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>7403.82</v>
+        <v>7140.82</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_29.xlsx
+++ b/data/input/absenteeism_data_29.xlsx
@@ -476,127 +476,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37418</v>
+        <v>15613</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Clarice Rocha</t>
+          <t>Maria Sophia Correia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45097</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>7567.83</v>
+        <v>4394.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>72514</v>
+        <v>42809</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>André Costela</t>
+          <t>Gustavo Henrique da Cunha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>6431.93</v>
+        <v>12237.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72272</v>
+        <v>15937</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Miguel Vieira</t>
+          <t>Sra. Sarah Duarte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>8528.66</v>
+        <v>8131.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98339</v>
+        <v>89883</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kevin Melo</t>
+          <t>Dra. Ana Luiza Costela</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>12333.79</v>
+        <v>9216.129999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64596</v>
+        <v>79556</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clara da Cruz</t>
+          <t>Sophia Rezende</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,60 +606,60 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>6296.82</v>
+        <v>9028.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15246</v>
+        <v>10059</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sophia Gonçalves</t>
+          <t>Helena Azevedo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>2842.97</v>
+        <v>7228.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>75912</v>
+        <v>38834</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rebeca Almeida</t>
+          <t>Srta. Juliana Teixeira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,51 +668,51 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>10904.85</v>
+        <v>4422.77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39778</v>
+        <v>7375</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marcela Ramos</t>
+          <t>Thales Alves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45097</v>
       </c>
       <c r="G9" t="n">
-        <v>11818.37</v>
+        <v>12426.83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43459</v>
+        <v>7105</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vinicius da Luz</t>
+          <t>Leonardo Campos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>10937.52</v>
+        <v>11324.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30968</v>
+        <v>48176</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Cecília Silveira</t>
+          <t>Eduarda Lopes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45097</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>7140.82</v>
+        <v>5914.66</v>
       </c>
     </row>
   </sheetData>
